--- a/sifa_E_tong/pages/template/layfirm.xlsx
+++ b/sifa_E_tong/pages/template/layfirm.xlsx
@@ -1,5 +1,200 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr showInkAnnotation="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="13920" tabRatio="211"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$2</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>律所名称</t>
+  </si>
+  <si>
+    <t>执业许可证</t>
+  </si>
+  <si>
+    <t>律所住所</t>
+  </si>
+  <si>
+    <t>律所负责人</t>
+  </si>
+  <si>
+    <t>组织形式</t>
+  </si>
+  <si>
+    <t>执业状态</t>
+  </si>
+  <si>
+    <t>是否受过行政处罚或行业处分</t>
+  </si>
+  <si>
+    <t>惩罚日期</t>
+  </si>
+  <si>
+    <t>处理单位</t>
+  </si>
+  <si>
+    <t>惩罚结果</t>
+  </si>
+  <si>
+    <t>湖南环楚律师事务所</t>
+  </si>
+  <si>
+    <t>24301199610397835</t>
+  </si>
+  <si>
+    <t>湖南省长沙市劳动西路377号1802室</t>
+  </si>
+  <si>
+    <t>臧作勇</t>
+  </si>
+  <si>
+    <t>普通合伙所</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2015-01-02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2015-12-11</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -339,9 +534,108 @@
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="15.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <autoFilter ref="B1:J2"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.79" right="0.79" top="1.05" bottom="1.05" header="0.79" footer="0.79"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>